--- a/image_converter/emotion_flow.xlsx
+++ b/image_converter/emotion_flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodai\git\CGLCD_SYSTEM\image_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E294C-6847-4CC6-A4A6-7F790BD60AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D597E31-33D8-492B-85EB-18930DF417EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="10000" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="510" windowWidth="10000" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emotion_flow" sheetId="1" r:id="rId1"/>
@@ -1198,12 +1198,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
